--- a/input/FMNH Siphonaptera.xlsx
+++ b/input/FMNH Siphonaptera.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teresa\Dropbox\DGR Conversion Files\TPT Stuff\Siphonaptera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/ixodes-tpt/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341A3E43-5E34-44E1-A89F-5629F445ED00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{341A3E43-5E34-44E1-A89F-5629F445ED00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{059D41AC-C3B8-4CB7-A0CD-7122AE9DF2D9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="1182">
   <si>
     <t>Family</t>
   </si>
@@ -3580,6 +3580,9 @@
   </si>
   <si>
     <t>Polygenis (Polygenis)</t>
+  </si>
+  <si>
+    <t>TPTdataset</t>
   </si>
 </sst>
 </file>
@@ -11925,18 +11928,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D8B0F4-01BA-4566-8EBB-469AAD72931A}">
   <dimension ref="A1:AK325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H309" workbookViewId="0">
-      <selection activeCell="J325" sqref="J325"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>371</v>
+        <v>1181</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>337</v>
@@ -12049,7 +12053,10 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>4</v>
@@ -12069,7 +12076,10 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
@@ -12092,7 +12102,10 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>7</v>
@@ -12115,7 +12128,10 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>8</v>
@@ -12135,7 +12151,10 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>9</v>
@@ -12158,7 +12177,10 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>10</v>
@@ -12181,7 +12203,10 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>11</v>
@@ -12204,7 +12229,10 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>12</v>
@@ -12224,7 +12252,10 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>13</v>
@@ -12247,7 +12278,10 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>381</v>
+        <v>370</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
@@ -12273,7 +12307,10 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>382</v>
+        <v>370</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>15</v>
@@ -12299,7 +12336,10 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>383</v>
+        <v>370</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>16</v>
@@ -12325,7 +12365,10 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>384</v>
+        <v>370</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>17</v>
@@ -12351,7 +12394,10 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>385</v>
+        <v>370</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>18</v>
@@ -12374,7 +12420,10 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>386</v>
+        <v>370</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>19</v>
@@ -12397,7 +12446,10 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>387</v>
+        <v>370</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>20</v>
@@ -12423,7 +12475,10 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>388</v>
+        <v>370</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>21</v>
@@ -12446,7 +12501,10 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>389</v>
+        <v>370</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>22</v>
@@ -12469,7 +12527,10 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>390</v>
+        <v>370</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>23</v>
@@ -12492,7 +12553,10 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>391</v>
+        <v>370</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>24</v>
@@ -12515,7 +12579,10 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>392</v>
+        <v>370</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>25</v>
@@ -12538,7 +12605,10 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>393</v>
+        <v>370</v>
+      </c>
+      <c r="B23" s="2">
+        <v>22</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>26</v>
@@ -12561,7 +12631,10 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>394</v>
+        <v>370</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>27</v>
@@ -12587,7 +12660,10 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>395</v>
+        <v>370</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -12610,7 +12686,10 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>396</v>
+        <v>370</v>
+      </c>
+      <c r="B26" s="2">
+        <v>25</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>29</v>
@@ -12636,7 +12715,10 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>397</v>
+        <v>370</v>
+      </c>
+      <c r="B27" s="2">
+        <v>26</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>30</v>
@@ -12659,7 +12741,10 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>398</v>
+        <v>370</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>31</v>
@@ -12682,7 +12767,10 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>399</v>
+        <v>370</v>
+      </c>
+      <c r="B29" s="2">
+        <v>28</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>32</v>
@@ -12705,7 +12793,10 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>400</v>
+        <v>370</v>
+      </c>
+      <c r="B30" s="2">
+        <v>29</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>33</v>
@@ -12731,7 +12822,10 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>401</v>
+        <v>370</v>
+      </c>
+      <c r="B31" s="2">
+        <v>30</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>34</v>
@@ -12757,7 +12851,10 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>402</v>
+        <v>370</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>35</v>
@@ -12783,7 +12880,10 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>403</v>
+        <v>370</v>
+      </c>
+      <c r="B33" s="2">
+        <v>32</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>36</v>
@@ -12806,7 +12906,10 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
+      </c>
+      <c r="B34" s="2">
+        <v>33</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>37</v>
@@ -12826,7 +12929,10 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>405</v>
+        <v>370</v>
+      </c>
+      <c r="B35" s="2">
+        <v>34</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>713</v>
@@ -12843,7 +12949,10 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>406</v>
+        <v>370</v>
+      </c>
+      <c r="B36" s="2">
+        <v>35</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>39</v>
@@ -12863,7 +12972,10 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>407</v>
+        <v>370</v>
+      </c>
+      <c r="B37" s="2">
+        <v>36</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>40</v>
@@ -12883,7 +12995,10 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>408</v>
+        <v>370</v>
+      </c>
+      <c r="B38" s="2">
+        <v>37</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>41</v>
@@ -12906,7 +13021,10 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>409</v>
+        <v>370</v>
+      </c>
+      <c r="B39" s="2">
+        <v>38</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>42</v>
@@ -12929,7 +13047,10 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>410</v>
+        <v>370</v>
+      </c>
+      <c r="B40" s="2">
+        <v>39</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>43</v>
@@ -12949,7 +13070,10 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>411</v>
+        <v>370</v>
+      </c>
+      <c r="B41" s="2">
+        <v>40</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>44</v>
@@ -12969,7 +13093,10 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>412</v>
+        <v>370</v>
+      </c>
+      <c r="B42" s="2">
+        <v>41</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>45</v>
@@ -12989,7 +13116,10 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>413</v>
+        <v>370</v>
+      </c>
+      <c r="B43" s="2">
+        <v>42</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>742</v>
@@ -13006,7 +13136,10 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>414</v>
+        <v>370</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>47</v>
@@ -13032,7 +13165,10 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>415</v>
+        <v>370</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>48</v>
@@ -13058,7 +13194,10 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>416</v>
+        <v>370</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>49</v>
@@ -13078,7 +13217,10 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>417</v>
+        <v>370</v>
+      </c>
+      <c r="B47" s="2">
+        <v>46</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>748</v>
@@ -13095,7 +13237,10 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>418</v>
+        <v>370</v>
+      </c>
+      <c r="B48" s="2">
+        <v>47</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>51</v>
@@ -13115,7 +13260,10 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>419</v>
+        <v>370</v>
+      </c>
+      <c r="B49" s="2">
+        <v>48</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>52</v>
@@ -13135,7 +13283,10 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>420</v>
+        <v>370</v>
+      </c>
+      <c r="B50" s="2">
+        <v>49</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>53</v>
@@ -13158,7 +13309,10 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>421</v>
+        <v>370</v>
+      </c>
+      <c r="B51" s="2">
+        <v>50</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>54</v>
@@ -13181,7 +13335,10 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>422</v>
+        <v>370</v>
+      </c>
+      <c r="B52" s="2">
+        <v>51</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>55</v>
@@ -13201,7 +13358,10 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>423</v>
+        <v>370</v>
+      </c>
+      <c r="B53" s="2">
+        <v>52</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>56</v>
@@ -13221,7 +13381,10 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>424</v>
+        <v>370</v>
+      </c>
+      <c r="B54" s="2">
+        <v>53</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>57</v>
@@ -13241,7 +13404,10 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>425</v>
+        <v>370</v>
+      </c>
+      <c r="B55" s="2">
+        <v>54</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>58</v>
@@ -13261,7 +13427,10 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>426</v>
+        <v>370</v>
+      </c>
+      <c r="B56" s="2">
+        <v>55</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>59</v>
@@ -13284,7 +13453,10 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>427</v>
+        <v>370</v>
+      </c>
+      <c r="B57" s="2">
+        <v>56</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>60</v>
@@ -13310,7 +13482,10 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>428</v>
+        <v>370</v>
+      </c>
+      <c r="B58" s="2">
+        <v>57</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>61</v>
@@ -13336,7 +13511,10 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>429</v>
+        <v>370</v>
+      </c>
+      <c r="B59" s="2">
+        <v>58</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>62</v>
@@ -13362,7 +13540,10 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>430</v>
+        <v>370</v>
+      </c>
+      <c r="B60" s="2">
+        <v>59</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>63</v>
@@ -13388,7 +13569,10 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>431</v>
+        <v>370</v>
+      </c>
+      <c r="B61" s="2">
+        <v>60</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>64</v>
@@ -13414,7 +13598,10 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>432</v>
+        <v>370</v>
+      </c>
+      <c r="B62" s="2">
+        <v>61</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>65</v>
@@ -13440,7 +13627,10 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>433</v>
+        <v>370</v>
+      </c>
+      <c r="B63" s="2">
+        <v>62</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>66</v>
@@ -13466,7 +13656,10 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>434</v>
+        <v>370</v>
+      </c>
+      <c r="B64" s="2">
+        <v>63</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>67</v>
@@ -13492,7 +13685,10 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>435</v>
+        <v>370</v>
+      </c>
+      <c r="B65" s="2">
+        <v>64</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>759</v>
@@ -13509,7 +13705,10 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>436</v>
+        <v>370</v>
+      </c>
+      <c r="B66" s="2">
+        <v>65</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>69</v>
@@ -13529,7 +13728,10 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>437</v>
+        <v>370</v>
+      </c>
+      <c r="B67" s="2">
+        <v>66</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>70</v>
@@ -13549,7 +13751,10 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>438</v>
+        <v>370</v>
+      </c>
+      <c r="B68" s="2">
+        <v>67</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>771</v>
@@ -13566,7 +13771,10 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>439</v>
+        <v>370</v>
+      </c>
+      <c r="B69" s="2">
+        <v>68</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>72</v>
@@ -13586,7 +13794,10 @@
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>440</v>
+        <v>370</v>
+      </c>
+      <c r="B70" s="2">
+        <v>69</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>772</v>
@@ -13603,7 +13814,10 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>441</v>
+        <v>370</v>
+      </c>
+      <c r="B71" s="2">
+        <v>70</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>74</v>
@@ -13626,7 +13840,10 @@
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>442</v>
+        <v>370</v>
+      </c>
+      <c r="B72" s="2">
+        <v>71</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>75</v>
@@ -13646,7 +13863,10 @@
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>443</v>
+        <v>370</v>
+      </c>
+      <c r="B73" s="2">
+        <v>72</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>76</v>
@@ -13666,7 +13886,10 @@
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>444</v>
+        <v>370</v>
+      </c>
+      <c r="B74" s="2">
+        <v>73</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>77</v>
@@ -13689,7 +13912,10 @@
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>445</v>
+        <v>370</v>
+      </c>
+      <c r="B75" s="2">
+        <v>74</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>78</v>
@@ -13712,7 +13938,10 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>446</v>
+        <v>370</v>
+      </c>
+      <c r="B76" s="2">
+        <v>75</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>79</v>
@@ -13738,7 +13967,10 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>447</v>
+        <v>370</v>
+      </c>
+      <c r="B77" s="2">
+        <v>76</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>80</v>
@@ -13764,7 +13996,10 @@
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>448</v>
+        <v>370</v>
+      </c>
+      <c r="B78" s="2">
+        <v>77</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>81</v>
@@ -13784,7 +14019,10 @@
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>449</v>
+        <v>370</v>
+      </c>
+      <c r="B79" s="2">
+        <v>78</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>82</v>
@@ -13804,7 +14042,10 @@
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>450</v>
+        <v>370</v>
+      </c>
+      <c r="B80" s="2">
+        <v>79</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>83</v>
@@ -13824,7 +14065,10 @@
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>451</v>
+        <v>370</v>
+      </c>
+      <c r="B81" s="2">
+        <v>80</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>779</v>
@@ -13841,7 +14085,10 @@
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>452</v>
+        <v>370</v>
+      </c>
+      <c r="B82" s="2">
+        <v>81</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>85</v>
@@ -13861,7 +14108,10 @@
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>453</v>
+        <v>370</v>
+      </c>
+      <c r="B83" s="2">
+        <v>82</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>86</v>
@@ -13881,7 +14131,10 @@
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>454</v>
+        <v>370</v>
+      </c>
+      <c r="B84" s="2">
+        <v>83</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>87</v>
@@ -13904,7 +14157,10 @@
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>455</v>
+        <v>370</v>
+      </c>
+      <c r="B85" s="2">
+        <v>84</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>88</v>
@@ -13927,7 +14183,10 @@
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>456</v>
+        <v>370</v>
+      </c>
+      <c r="B86" s="2">
+        <v>85</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>89</v>
@@ -13947,7 +14206,10 @@
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>457</v>
+        <v>370</v>
+      </c>
+      <c r="B87" s="2">
+        <v>86</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>90</v>
@@ -13967,7 +14229,10 @@
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>458</v>
+        <v>370</v>
+      </c>
+      <c r="B88" s="2">
+        <v>87</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>91</v>
@@ -13990,7 +14255,10 @@
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>459</v>
+        <v>370</v>
+      </c>
+      <c r="B89" s="2">
+        <v>88</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>92</v>
@@ -14013,7 +14281,10 @@
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>460</v>
+        <v>370</v>
+      </c>
+      <c r="B90" s="2">
+        <v>89</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>93</v>
@@ -14033,7 +14304,10 @@
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>461</v>
+        <v>370</v>
+      </c>
+      <c r="B91" s="2">
+        <v>90</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>94</v>
@@ -14053,7 +14327,10 @@
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>462</v>
+        <v>370</v>
+      </c>
+      <c r="B92" s="2">
+        <v>91</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>95</v>
@@ -14073,7 +14350,10 @@
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>463</v>
+        <v>370</v>
+      </c>
+      <c r="B93" s="2">
+        <v>92</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>96</v>
@@ -14093,7 +14373,10 @@
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>464</v>
+        <v>370</v>
+      </c>
+      <c r="B94" s="2">
+        <v>93</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>97</v>
@@ -14113,7 +14396,10 @@
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>465</v>
+        <v>370</v>
+      </c>
+      <c r="B95" s="2">
+        <v>94</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>98</v>
@@ -14133,7 +14419,10 @@
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>466</v>
+        <v>370</v>
+      </c>
+      <c r="B96" s="2">
+        <v>95</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>99</v>
@@ -14156,7 +14445,10 @@
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>467</v>
+        <v>370</v>
+      </c>
+      <c r="B97" s="2">
+        <v>96</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>100</v>
@@ -14179,7 +14471,10 @@
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>468</v>
+        <v>370</v>
+      </c>
+      <c r="B98" s="2">
+        <v>97</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>101</v>
@@ -14202,7 +14497,10 @@
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>469</v>
+        <v>370</v>
+      </c>
+      <c r="B99" s="2">
+        <v>98</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>102</v>
@@ -14225,7 +14523,10 @@
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>470</v>
+        <v>370</v>
+      </c>
+      <c r="B100" s="2">
+        <v>99</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>103</v>
@@ -14248,7 +14549,10 @@
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>471</v>
+        <v>370</v>
+      </c>
+      <c r="B101" s="2">
+        <v>100</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>787</v>
@@ -14265,7 +14569,10 @@
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>472</v>
+        <v>370</v>
+      </c>
+      <c r="B102" s="2">
+        <v>101</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>105</v>
@@ -14288,7 +14595,10 @@
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>473</v>
+        <v>370</v>
+      </c>
+      <c r="B103" s="2">
+        <v>102</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>1176</v>
@@ -14308,7 +14618,10 @@
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>474</v>
+        <v>370</v>
+      </c>
+      <c r="B104" s="2">
+        <v>103</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>107</v>
@@ -14331,7 +14644,10 @@
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>475</v>
+        <v>370</v>
+      </c>
+      <c r="B105" s="2">
+        <v>104</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>108</v>
@@ -14354,7 +14670,10 @@
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>476</v>
+        <v>370</v>
+      </c>
+      <c r="B106" s="2">
+        <v>105</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>109</v>
@@ -14377,7 +14696,10 @@
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>477</v>
+        <v>370</v>
+      </c>
+      <c r="B107" s="2">
+        <v>106</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>110</v>
@@ -14400,7 +14722,10 @@
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>478</v>
+        <v>370</v>
+      </c>
+      <c r="B108" s="2">
+        <v>107</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>111</v>
@@ -14423,7 +14748,10 @@
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>479</v>
+        <v>370</v>
+      </c>
+      <c r="B109" s="2">
+        <v>108</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>112</v>
@@ -14446,7 +14774,10 @@
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>480</v>
+        <v>370</v>
+      </c>
+      <c r="B110" s="2">
+        <v>109</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>113</v>
@@ -14472,7 +14803,10 @@
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>481</v>
+        <v>370</v>
+      </c>
+      <c r="B111" s="2">
+        <v>110</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>114</v>
@@ -14498,7 +14832,10 @@
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>482</v>
+        <v>370</v>
+      </c>
+      <c r="B112" s="2">
+        <v>111</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>1177</v>
@@ -14518,7 +14855,10 @@
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>483</v>
+        <v>370</v>
+      </c>
+      <c r="B113" s="2">
+        <v>112</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>116</v>
@@ -14541,7 +14881,10 @@
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>484</v>
+        <v>370</v>
+      </c>
+      <c r="B114" s="2">
+        <v>113</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>117</v>
@@ -14564,7 +14907,10 @@
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>485</v>
+        <v>370</v>
+      </c>
+      <c r="B115" s="2">
+        <v>114</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>118</v>
@@ -14587,7 +14933,10 @@
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>486</v>
+        <v>370</v>
+      </c>
+      <c r="B116" s="2">
+        <v>115</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>119</v>
@@ -14610,7 +14959,10 @@
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>487</v>
+        <v>370</v>
+      </c>
+      <c r="B117" s="2">
+        <v>116</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>1178</v>
@@ -14630,7 +14982,10 @@
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>488</v>
+        <v>370</v>
+      </c>
+      <c r="B118" s="2">
+        <v>117</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>121</v>
@@ -14650,7 +15005,10 @@
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>489</v>
+        <v>370</v>
+      </c>
+      <c r="B119" s="2">
+        <v>118</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>122</v>
@@ -14670,7 +15028,10 @@
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>490</v>
+        <v>370</v>
+      </c>
+      <c r="B120" s="2">
+        <v>119</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>817</v>
@@ -14687,7 +15048,10 @@
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>491</v>
+        <v>370</v>
+      </c>
+      <c r="B121" s="2">
+        <v>120</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>124</v>
@@ -14707,7 +15071,10 @@
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>492</v>
+        <v>370</v>
+      </c>
+      <c r="B122" s="2">
+        <v>121</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>125</v>
@@ -14730,7 +15097,10 @@
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>493</v>
+        <v>370</v>
+      </c>
+      <c r="B123" s="2">
+        <v>122</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>126</v>
@@ -14750,7 +15120,10 @@
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>494</v>
+        <v>370</v>
+      </c>
+      <c r="B124" s="2">
+        <v>123</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>127</v>
@@ -14773,7 +15146,10 @@
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>495</v>
+        <v>370</v>
+      </c>
+      <c r="B125" s="2">
+        <v>124</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>128</v>
@@ -14796,7 +15172,10 @@
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>496</v>
+        <v>370</v>
+      </c>
+      <c r="B126" s="2">
+        <v>125</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>129</v>
@@ -14816,7 +15195,10 @@
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>497</v>
+        <v>370</v>
+      </c>
+      <c r="B127" s="2">
+        <v>126</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>130</v>
@@ -14839,7 +15221,10 @@
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>498</v>
+        <v>370</v>
+      </c>
+      <c r="B128" s="2">
+        <v>127</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>131</v>
@@ -14859,7 +15244,10 @@
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>499</v>
+        <v>370</v>
+      </c>
+      <c r="B129" s="2">
+        <v>128</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>132</v>
@@ -14882,7 +15270,10 @@
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>500</v>
+        <v>370</v>
+      </c>
+      <c r="B130" s="2">
+        <v>129</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>133</v>
@@ -14905,7 +15296,10 @@
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>501</v>
+        <v>370</v>
+      </c>
+      <c r="B131" s="2">
+        <v>130</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>134</v>
@@ -14928,7 +15322,10 @@
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>502</v>
+        <v>370</v>
+      </c>
+      <c r="B132" s="2">
+        <v>131</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>135</v>
@@ -14951,7 +15348,10 @@
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>503</v>
+        <v>370</v>
+      </c>
+      <c r="B133" s="2">
+        <v>132</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>136</v>
@@ -14974,7 +15374,10 @@
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>504</v>
+        <v>370</v>
+      </c>
+      <c r="B134" s="2">
+        <v>133</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>137</v>
@@ -14997,7 +15400,10 @@
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>505</v>
+        <v>370</v>
+      </c>
+      <c r="B135" s="2">
+        <v>134</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>138</v>
@@ -15020,7 +15426,10 @@
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>506</v>
+        <v>370</v>
+      </c>
+      <c r="B136" s="2">
+        <v>135</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>139</v>
@@ -15043,7 +15452,10 @@
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>507</v>
+        <v>370</v>
+      </c>
+      <c r="B137" s="2">
+        <v>136</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>140</v>
@@ -15063,7 +15475,10 @@
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>508</v>
+        <v>370</v>
+      </c>
+      <c r="B138" s="2">
+        <v>137</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>141</v>
@@ -15083,7 +15498,10 @@
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>509</v>
+        <v>370</v>
+      </c>
+      <c r="B139" s="2">
+        <v>138</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>142</v>
@@ -15106,7 +15524,10 @@
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>510</v>
+        <v>370</v>
+      </c>
+      <c r="B140" s="2">
+        <v>139</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>143</v>
@@ -15126,7 +15547,10 @@
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>511</v>
+        <v>370</v>
+      </c>
+      <c r="B141" s="2">
+        <v>140</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>144</v>
@@ -15146,7 +15570,10 @@
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>512</v>
+        <v>370</v>
+      </c>
+      <c r="B142" s="2">
+        <v>141</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>829</v>
@@ -15163,7 +15590,10 @@
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>513</v>
+        <v>370</v>
+      </c>
+      <c r="B143" s="2">
+        <v>142</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>147</v>
@@ -15183,7 +15613,10 @@
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>514</v>
+        <v>370</v>
+      </c>
+      <c r="B144" s="2">
+        <v>143</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>148</v>
@@ -15206,7 +15639,10 @@
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>515</v>
+        <v>370</v>
+      </c>
+      <c r="B145" s="2">
+        <v>144</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>149</v>
@@ -15226,7 +15662,10 @@
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>516</v>
+        <v>370</v>
+      </c>
+      <c r="B146" s="2">
+        <v>145</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>150</v>
@@ -15246,7 +15685,10 @@
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>517</v>
+        <v>370</v>
+      </c>
+      <c r="B147" s="2">
+        <v>146</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>151</v>
@@ -15266,7 +15708,10 @@
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>518</v>
+        <v>370</v>
+      </c>
+      <c r="B148" s="2">
+        <v>147</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>152</v>
@@ -15286,7 +15731,10 @@
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>519</v>
+        <v>370</v>
+      </c>
+      <c r="B149" s="2">
+        <v>148</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>153</v>
@@ -15309,7 +15757,10 @@
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>520</v>
+        <v>370</v>
+      </c>
+      <c r="B150" s="2">
+        <v>149</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>154</v>
@@ -15332,7 +15783,10 @@
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>521</v>
+        <v>370</v>
+      </c>
+      <c r="B151" s="2">
+        <v>150</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>844</v>
@@ -15349,7 +15803,10 @@
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>522</v>
+        <v>370</v>
+      </c>
+      <c r="B152" s="2">
+        <v>151</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>156</v>
@@ -15369,7 +15826,10 @@
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>523</v>
+        <v>370</v>
+      </c>
+      <c r="B153" s="2">
+        <v>152</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>157</v>
@@ -15389,7 +15849,10 @@
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>524</v>
+        <v>370</v>
+      </c>
+      <c r="B154" s="2">
+        <v>153</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>158</v>
@@ -15412,7 +15875,10 @@
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>525</v>
+        <v>370</v>
+      </c>
+      <c r="B155" s="2">
+        <v>154</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>159</v>
@@ -15435,7 +15901,10 @@
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>526</v>
+        <v>370</v>
+      </c>
+      <c r="B156" s="2">
+        <v>155</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>160</v>
@@ -15458,7 +15927,10 @@
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>527</v>
+        <v>370</v>
+      </c>
+      <c r="B157" s="2">
+        <v>156</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>852</v>
@@ -15475,7 +15947,10 @@
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>528</v>
+        <v>370</v>
+      </c>
+      <c r="B158" s="2">
+        <v>157</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>162</v>
@@ -15498,7 +15973,10 @@
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>529</v>
+        <v>370</v>
+      </c>
+      <c r="B159" s="2">
+        <v>158</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>163</v>
@@ -15518,7 +15996,10 @@
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>530</v>
+        <v>370</v>
+      </c>
+      <c r="B160" s="2">
+        <v>159</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>164</v>
@@ -15538,7 +16019,10 @@
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>531</v>
+        <v>370</v>
+      </c>
+      <c r="B161" s="2">
+        <v>160</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>165</v>
@@ -15558,7 +16042,10 @@
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>532</v>
+        <v>370</v>
+      </c>
+      <c r="B162" s="2">
+        <v>161</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>166</v>
@@ -15581,7 +16068,10 @@
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>533</v>
+        <v>370</v>
+      </c>
+      <c r="B163" s="2">
+        <v>162</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>167</v>
@@ -15601,7 +16091,10 @@
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>534</v>
+        <v>370</v>
+      </c>
+      <c r="B164" s="2">
+        <v>163</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>168</v>
@@ -15621,7 +16114,10 @@
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>535</v>
+        <v>370</v>
+      </c>
+      <c r="B165" s="2">
+        <v>164</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>169</v>
@@ -15641,7 +16137,10 @@
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>536</v>
+        <v>370</v>
+      </c>
+      <c r="B166" s="2">
+        <v>165</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>170</v>
@@ -15661,7 +16160,10 @@
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>537</v>
+        <v>370</v>
+      </c>
+      <c r="B167" s="2">
+        <v>166</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>171</v>
@@ -15684,7 +16186,10 @@
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>538</v>
+        <v>370</v>
+      </c>
+      <c r="B168" s="2">
+        <v>167</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>172</v>
@@ -15707,7 +16212,10 @@
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>539</v>
+        <v>370</v>
+      </c>
+      <c r="B169" s="2">
+        <v>168</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>861</v>
@@ -15724,7 +16232,10 @@
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>540</v>
+        <v>370</v>
+      </c>
+      <c r="B170" s="2">
+        <v>169</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>174</v>
@@ -15744,7 +16255,10 @@
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>541</v>
+        <v>370</v>
+      </c>
+      <c r="B171" s="2">
+        <v>170</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>175</v>
@@ -15764,7 +16278,10 @@
     </row>
     <row r="172" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>542</v>
+        <v>370</v>
+      </c>
+      <c r="B172" s="2">
+        <v>171</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>176</v>
@@ -15784,7 +16301,10 @@
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>543</v>
+        <v>370</v>
+      </c>
+      <c r="B173" s="2">
+        <v>172</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>177</v>
@@ -15804,7 +16324,10 @@
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>544</v>
+        <v>370</v>
+      </c>
+      <c r="B174" s="2">
+        <v>173</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>178</v>
@@ -15827,7 +16350,10 @@
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>545</v>
+        <v>370</v>
+      </c>
+      <c r="B175" s="2">
+        <v>174</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>179</v>
@@ -15850,7 +16376,10 @@
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>546</v>
+        <v>370</v>
+      </c>
+      <c r="B176" s="2">
+        <v>175</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>180</v>
@@ -15870,7 +16399,10 @@
     </row>
     <row r="177" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>547</v>
+        <v>370</v>
+      </c>
+      <c r="B177" s="2">
+        <v>176</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>181</v>
@@ -15890,7 +16422,10 @@
     </row>
     <row r="178" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>548</v>
+        <v>370</v>
+      </c>
+      <c r="B178" s="2">
+        <v>177</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>182</v>
@@ -15910,7 +16445,10 @@
     </row>
     <row r="179" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>549</v>
+        <v>370</v>
+      </c>
+      <c r="B179" s="2">
+        <v>178</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>183</v>
@@ -15930,7 +16468,10 @@
     </row>
     <row r="180" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>550</v>
+        <v>370</v>
+      </c>
+      <c r="B180" s="2">
+        <v>179</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>878</v>
@@ -15947,7 +16488,10 @@
     </row>
     <row r="181" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>551</v>
+        <v>370</v>
+      </c>
+      <c r="B181" s="2">
+        <v>180</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>185</v>
@@ -15973,7 +16517,10 @@
     </row>
     <row r="182" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>552</v>
+        <v>370</v>
+      </c>
+      <c r="B182" s="2">
+        <v>181</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>186</v>
@@ -15993,7 +16540,10 @@
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>553</v>
+        <v>370</v>
+      </c>
+      <c r="B183" s="2">
+        <v>182</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>187</v>
@@ -16013,7 +16563,10 @@
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>554</v>
+        <v>370</v>
+      </c>
+      <c r="B184" s="2">
+        <v>183</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>188</v>
@@ -16033,7 +16586,10 @@
     </row>
     <row r="185" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>555</v>
+        <v>370</v>
+      </c>
+      <c r="B185" s="2">
+        <v>184</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>189</v>
@@ -16053,7 +16609,10 @@
     </row>
     <row r="186" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>556</v>
+        <v>370</v>
+      </c>
+      <c r="B186" s="2">
+        <v>185</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>190</v>
@@ -16073,7 +16632,10 @@
     </row>
     <row r="187" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>557</v>
+        <v>370</v>
+      </c>
+      <c r="B187" s="2">
+        <v>186</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>191</v>
@@ -16093,7 +16655,10 @@
     </row>
     <row r="188" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>558</v>
+        <v>370</v>
+      </c>
+      <c r="B188" s="2">
+        <v>187</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>192</v>
@@ -16116,7 +16681,10 @@
     </row>
     <row r="189" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>559</v>
+        <v>370</v>
+      </c>
+      <c r="B189" s="2">
+        <v>188</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>193</v>
@@ -16139,7 +16707,10 @@
     </row>
     <row r="190" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>560</v>
+        <v>370</v>
+      </c>
+      <c r="B190" s="2">
+        <v>189</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>194</v>
@@ -16159,7 +16730,10 @@
     </row>
     <row r="191" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>561</v>
+        <v>370</v>
+      </c>
+      <c r="B191" s="2">
+        <v>190</v>
       </c>
       <c r="J191" s="2" t="s">
         <v>195</v>
@@ -16179,7 +16753,10 @@
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>562</v>
+        <v>370</v>
+      </c>
+      <c r="B192" s="2">
+        <v>191</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>196</v>
@@ -16202,7 +16779,10 @@
     </row>
     <row r="193" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>563</v>
+        <v>370</v>
+      </c>
+      <c r="B193" s="2">
+        <v>192</v>
       </c>
       <c r="J193" s="2" t="s">
         <v>889</v>
@@ -16219,7 +16799,10 @@
     </row>
     <row r="194" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>564</v>
+        <v>370</v>
+      </c>
+      <c r="B194" s="2">
+        <v>193</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>198</v>
@@ -16239,7 +16822,10 @@
     </row>
     <row r="195" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>565</v>
+        <v>370</v>
+      </c>
+      <c r="B195" s="2">
+        <v>194</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>199</v>
@@ -16259,7 +16845,10 @@
     </row>
     <row r="196" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>566</v>
+        <v>370</v>
+      </c>
+      <c r="B196" s="2">
+        <v>195</v>
       </c>
       <c r="J196" s="2" t="s">
         <v>200</v>
@@ -16279,7 +16868,10 @@
     </row>
     <row r="197" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>567</v>
+        <v>370</v>
+      </c>
+      <c r="B197" s="2">
+        <v>196</v>
       </c>
       <c r="J197" s="2" t="s">
         <v>201</v>
@@ -16299,7 +16891,10 @@
     </row>
     <row r="198" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>568</v>
+        <v>370</v>
+      </c>
+      <c r="B198" s="2">
+        <v>197</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>202</v>
@@ -16319,7 +16914,10 @@
     </row>
     <row r="199" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>569</v>
+        <v>370</v>
+      </c>
+      <c r="B199" s="2">
+        <v>198</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>203</v>
@@ -16339,7 +16937,10 @@
     </row>
     <row r="200" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>570</v>
+        <v>370</v>
+      </c>
+      <c r="B200" s="2">
+        <v>199</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>204</v>
@@ -16359,7 +16960,10 @@
     </row>
     <row r="201" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>571</v>
+        <v>370</v>
+      </c>
+      <c r="B201" s="2">
+        <v>200</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>205</v>
@@ -16379,7 +16983,10 @@
     </row>
     <row r="202" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>572</v>
+        <v>370</v>
+      </c>
+      <c r="B202" s="2">
+        <v>201</v>
       </c>
       <c r="J202" s="2" t="s">
         <v>206</v>
@@ -16399,7 +17006,10 @@
     </row>
     <row r="203" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>573</v>
+        <v>370</v>
+      </c>
+      <c r="B203" s="2">
+        <v>202</v>
       </c>
       <c r="J203" s="2" t="s">
         <v>898</v>
@@ -16416,7 +17026,10 @@
     </row>
     <row r="204" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>574</v>
+        <v>370</v>
+      </c>
+      <c r="B204" s="2">
+        <v>203</v>
       </c>
       <c r="J204" s="2" t="s">
         <v>208</v>
@@ -16436,7 +17049,10 @@
     </row>
     <row r="205" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>575</v>
+        <v>370</v>
+      </c>
+      <c r="B205" s="2">
+        <v>204</v>
       </c>
       <c r="J205" s="2" t="s">
         <v>209</v>
@@ -16456,7 +17072,10 @@
     </row>
     <row r="206" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>576</v>
+        <v>370</v>
+      </c>
+      <c r="B206" s="2">
+        <v>205</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>210</v>
@@ -16476,7 +17095,10 @@
     </row>
     <row r="207" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>577</v>
+        <v>370</v>
+      </c>
+      <c r="B207" s="2">
+        <v>206</v>
       </c>
       <c r="J207" s="2" t="s">
         <v>211</v>
@@ -16496,7 +17118,10 @@
     </row>
     <row r="208" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>578</v>
+        <v>370</v>
+      </c>
+      <c r="B208" s="2">
+        <v>207</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>212</v>
@@ -16516,7 +17141,10 @@
     </row>
     <row r="209" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>579</v>
+        <v>370</v>
+      </c>
+      <c r="B209" s="2">
+        <v>208</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>213</v>
@@ -16536,7 +17164,10 @@
     </row>
     <row r="210" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>580</v>
+        <v>370</v>
+      </c>
+      <c r="B210" s="2">
+        <v>209</v>
       </c>
       <c r="J210" s="2" t="s">
         <v>214</v>
@@ -16556,7 +17187,10 @@
     </row>
     <row r="211" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>581</v>
+        <v>370</v>
+      </c>
+      <c r="B211" s="2">
+        <v>210</v>
       </c>
       <c r="J211" s="2" t="s">
         <v>215</v>
@@ -16576,7 +17210,10 @@
     </row>
     <row r="212" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>582</v>
+        <v>370</v>
+      </c>
+      <c r="B212" s="2">
+        <v>211</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>216</v>
@@ -16596,7 +17233,10 @@
     </row>
     <row r="213" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>583</v>
+        <v>370</v>
+      </c>
+      <c r="B213" s="2">
+        <v>212</v>
       </c>
       <c r="J213" s="2" t="s">
         <v>217</v>
@@ -16616,7 +17256,10 @@
     </row>
     <row r="214" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>584</v>
+        <v>370</v>
+      </c>
+      <c r="B214" s="2">
+        <v>213</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>218</v>
@@ -16636,7 +17279,10 @@
     </row>
     <row r="215" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>585</v>
+        <v>370</v>
+      </c>
+      <c r="B215" s="2">
+        <v>214</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>219</v>
@@ -16656,7 +17302,10 @@
     </row>
     <row r="216" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>586</v>
+        <v>370</v>
+      </c>
+      <c r="B216" s="2">
+        <v>215</v>
       </c>
       <c r="J216" s="2" t="s">
         <v>220</v>
@@ -16676,7 +17325,10 @@
     </row>
     <row r="217" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>587</v>
+        <v>370</v>
+      </c>
+      <c r="B217" s="2">
+        <v>216</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>221</v>
@@ -16696,7 +17348,10 @@
     </row>
     <row r="218" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>588</v>
+        <v>370</v>
+      </c>
+      <c r="B218" s="2">
+        <v>217</v>
       </c>
       <c r="J218" s="2" t="s">
         <v>222</v>
@@ -16716,7 +17371,10 @@
     </row>
     <row r="219" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>589</v>
+        <v>370</v>
+      </c>
+      <c r="B219" s="2">
+        <v>218</v>
       </c>
       <c r="J219" s="2" t="s">
         <v>223</v>
@@ -16736,7 +17394,10 @@
     </row>
     <row r="220" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>590</v>
+        <v>370</v>
+      </c>
+      <c r="B220" s="2">
+        <v>219</v>
       </c>
       <c r="J220" s="2" t="s">
         <v>224</v>
@@ -16756,7 +17417,10 @@
     </row>
     <row r="221" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>591</v>
+        <v>370</v>
+      </c>
+      <c r="B221" s="2">
+        <v>220</v>
       </c>
       <c r="J221" s="2" t="s">
         <v>225</v>
@@ -16776,7 +17440,10 @@
     </row>
     <row r="222" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>592</v>
+        <v>370</v>
+      </c>
+      <c r="B222" s="2">
+        <v>221</v>
       </c>
       <c r="J222" s="2" t="s">
         <v>908</v>
@@ -16793,7 +17460,10 @@
     </row>
     <row r="223" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>593</v>
+        <v>370</v>
+      </c>
+      <c r="B223" s="2">
+        <v>222</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>227</v>
@@ -16813,7 +17483,10 @@
     </row>
     <row r="224" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>594</v>
+        <v>370</v>
+      </c>
+      <c r="B224" s="2">
+        <v>223</v>
       </c>
       <c r="J224" s="2" t="s">
         <v>228</v>
@@ -16836,7 +17509,10 @@
     </row>
     <row r="225" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>595</v>
+        <v>370</v>
+      </c>
+      <c r="B225" s="2">
+        <v>224</v>
       </c>
       <c r="J225" s="2" t="s">
         <v>229</v>
@@ -16862,7 +17538,10 @@
     </row>
     <row r="226" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>596</v>
+        <v>370</v>
+      </c>
+      <c r="B226" s="2">
+        <v>225</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>230</v>
@@ -16888,7 +17567,10 @@
     </row>
     <row r="227" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>597</v>
+        <v>370</v>
+      </c>
+      <c r="B227" s="2">
+        <v>226</v>
       </c>
       <c r="J227" s="2" t="s">
         <v>231</v>
@@ -16911,7 +17593,10 @@
     </row>
     <row r="228" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>598</v>
+        <v>370</v>
+      </c>
+      <c r="B228" s="2">
+        <v>227</v>
       </c>
       <c r="J228" s="2" t="s">
         <v>232</v>
@@ -16934,7 +17619,10 @@
     </row>
     <row r="229" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>599</v>
+        <v>370</v>
+      </c>
+      <c r="B229" s="2">
+        <v>228</v>
       </c>
       <c r="J229" s="2" t="s">
         <v>233</v>
@@ -16957,7 +17645,10 @@
     </row>
     <row r="230" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>600</v>
+        <v>370</v>
+      </c>
+      <c r="B230" s="2">
+        <v>229</v>
       </c>
       <c r="J230" s="2" t="s">
         <v>234</v>
@@ -16977,7 +17668,10 @@
     </row>
     <row r="231" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>601</v>
+        <v>370</v>
+      </c>
+      <c r="B231" s="2">
+        <v>230</v>
       </c>
       <c r="J231" s="2" t="s">
         <v>235</v>
@@ -16997,7 +17691,10 @@
     </row>
     <row r="232" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>602</v>
+        <v>370</v>
+      </c>
+      <c r="B232" s="2">
+        <v>231</v>
       </c>
       <c r="J232" s="2" t="s">
         <v>236</v>
@@ -17017,7 +17714,10 @@
     </row>
     <row r="233" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>603</v>
+        <v>370</v>
+      </c>
+      <c r="B233" s="2">
+        <v>232</v>
       </c>
       <c r="J233" s="2" t="s">
         <v>932</v>
@@ -17034,7 +17734,10 @@
     </row>
     <row r="234" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>604</v>
+        <v>370</v>
+      </c>
+      <c r="B234" s="2">
+        <v>233</v>
       </c>
       <c r="J234" s="2" t="s">
         <v>238</v>
@@ -17054,7 +17757,10 @@
     </row>
     <row r="235" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>605</v>
+        <v>370</v>
+      </c>
+      <c r="B235" s="2">
+        <v>234</v>
       </c>
       <c r="J235" s="2" t="s">
         <v>239</v>
@@ -17074,7 +17780,10 @@
     </row>
     <row r="236" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>606</v>
+        <v>370</v>
+      </c>
+      <c r="B236" s="2">
+        <v>235</v>
       </c>
       <c r="J236" s="2" t="s">
         <v>240</v>
@@ -17094,7 +17803,10 @@
     </row>
     <row r="237" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>607</v>
+        <v>370</v>
+      </c>
+      <c r="B237" s="2">
+        <v>236</v>
       </c>
       <c r="J237" s="2" t="s">
         <v>935</v>
@@ -17111,7 +17823,10 @@
     </row>
     <row r="238" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>608</v>
+        <v>370</v>
+      </c>
+      <c r="B238" s="2">
+        <v>237</v>
       </c>
       <c r="J238" s="2" t="s">
         <v>242</v>
@@ -17134,7 +17849,10 @@
     </row>
     <row r="239" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>609</v>
+        <v>370</v>
+      </c>
+      <c r="B239" s="2">
+        <v>238</v>
       </c>
       <c r="J239" s="2" t="s">
         <v>243</v>
@@ -17157,7 +17875,10 @@
     </row>
     <row r="240" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>610</v>
+        <v>370</v>
+      </c>
+      <c r="B240" s="2">
+        <v>239</v>
       </c>
       <c r="J240" s="2" t="s">
         <v>244</v>
@@ -17180,7 +17901,10 @@
     </row>
     <row r="241" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>611</v>
+        <v>370</v>
+      </c>
+      <c r="B241" s="2">
+        <v>240</v>
       </c>
       <c r="J241" s="2" t="s">
         <v>245</v>
@@ -17203,7 +17927,10 @@
     </row>
     <row r="242" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>612</v>
+        <v>370</v>
+      </c>
+      <c r="B242" s="2">
+        <v>241</v>
       </c>
       <c r="J242" s="2" t="s">
         <v>246</v>
@@ -17229,7 +17956,10 @@
     </row>
     <row r="243" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>613</v>
+        <v>370</v>
+      </c>
+      <c r="B243" s="2">
+        <v>242</v>
       </c>
       <c r="J243" s="2" t="s">
         <v>247</v>
@@ -17249,7 +17979,10 @@
     </row>
     <row r="244" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>614</v>
+        <v>370</v>
+      </c>
+      <c r="B244" s="2">
+        <v>243</v>
       </c>
       <c r="J244" s="2" t="s">
         <v>938</v>
@@ -17266,7 +17999,10 @@
     </row>
     <row r="245" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>615</v>
+        <v>370</v>
+      </c>
+      <c r="B245" s="2">
+        <v>244</v>
       </c>
       <c r="J245" s="2" t="s">
         <v>249</v>
@@ -17286,7 +18022,10 @@
     </row>
     <row r="246" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>616</v>
+        <v>370</v>
+      </c>
+      <c r="B246" s="2">
+        <v>245</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>944</v>
@@ -17303,7 +18042,10 @@
     </row>
     <row r="247" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>617</v>
+        <v>370</v>
+      </c>
+      <c r="B247" s="2">
+        <v>246</v>
       </c>
       <c r="J247" s="2" t="s">
         <v>251</v>
@@ -17323,7 +18065,10 @@
     </row>
     <row r="248" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>618</v>
+        <v>370</v>
+      </c>
+      <c r="B248" s="2">
+        <v>247</v>
       </c>
       <c r="J248" s="2" t="s">
         <v>946</v>
@@ -17340,7 +18085,10 @@
     </row>
     <row r="249" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>619</v>
+        <v>370</v>
+      </c>
+      <c r="B249" s="2">
+        <v>248</v>
       </c>
       <c r="J249" s="2" t="s">
         <v>253</v>
@@ -17360,7 +18108,10 @@
     </row>
     <row r="250" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>620</v>
+        <v>370</v>
+      </c>
+      <c r="B250" s="2">
+        <v>249</v>
       </c>
       <c r="J250" s="2" t="s">
         <v>254</v>
@@ -17380,7 +18131,10 @@
     </row>
     <row r="251" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>621</v>
+        <v>370</v>
+      </c>
+      <c r="B251" s="2">
+        <v>250</v>
       </c>
       <c r="J251" s="2" t="s">
         <v>256</v>
@@ -17403,7 +18157,10 @@
     </row>
     <row r="252" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>622</v>
+        <v>370</v>
+      </c>
+      <c r="B252" s="2">
+        <v>251</v>
       </c>
       <c r="J252" s="2" t="s">
         <v>257</v>
@@ -17423,7 +18180,10 @@
     </row>
     <row r="253" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>623</v>
+        <v>370</v>
+      </c>
+      <c r="B253" s="2">
+        <v>252</v>
       </c>
       <c r="J253" s="2" t="s">
         <v>258</v>
@@ -17443,7 +18203,10 @@
     </row>
     <row r="254" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>624</v>
+        <v>370</v>
+      </c>
+      <c r="B254" s="2">
+        <v>253</v>
       </c>
       <c r="J254" s="2" t="s">
         <v>259</v>
@@ -17463,7 +18226,10 @@
     </row>
     <row r="255" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>625</v>
+        <v>370</v>
+      </c>
+      <c r="B255" s="2">
+        <v>254</v>
       </c>
       <c r="J255" s="2" t="s">
         <v>260</v>
@@ -17483,7 +18249,10 @@
     </row>
     <row r="256" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>626</v>
+        <v>370</v>
+      </c>
+      <c r="B256" s="2">
+        <v>255</v>
       </c>
       <c r="J256" s="2" t="s">
         <v>952</v>
@@ -17500,7 +18269,10 @@
     </row>
     <row r="257" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>627</v>
+        <v>370</v>
+      </c>
+      <c r="B257" s="2">
+        <v>256</v>
       </c>
       <c r="J257" s="2" t="s">
         <v>262</v>
@@ -17520,7 +18292,10 @@
     </row>
     <row r="258" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>628</v>
+        <v>370</v>
+      </c>
+      <c r="B258" s="2">
+        <v>257</v>
       </c>
       <c r="J258" s="2" t="s">
         <v>263</v>
@@ -17540,7 +18315,10 @@
     </row>
     <row r="259" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>629</v>
+        <v>370</v>
+      </c>
+      <c r="B259" s="2">
+        <v>258</v>
       </c>
       <c r="J259" s="2" t="s">
         <v>957</v>
@@ -17557,7 +18335,10 @@
     </row>
     <row r="260" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>630</v>
+        <v>370</v>
+      </c>
+      <c r="B260" s="2">
+        <v>259</v>
       </c>
       <c r="J260" s="2" t="s">
         <v>265</v>
@@ -17577,7 +18358,10 @@
     </row>
     <row r="261" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>631</v>
+        <v>370</v>
+      </c>
+      <c r="B261" s="2">
+        <v>260</v>
       </c>
       <c r="J261" s="2" t="s">
         <v>266</v>
@@ -17600,7 +18384,10 @@
     </row>
     <row r="262" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>632</v>
+        <v>370</v>
+      </c>
+      <c r="B262" s="2">
+        <v>261</v>
       </c>
       <c r="J262" s="2" t="s">
         <v>268</v>
@@ -17623,7 +18410,10 @@
     </row>
     <row r="263" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>633</v>
+        <v>370</v>
+      </c>
+      <c r="B263" s="2">
+        <v>262</v>
       </c>
       <c r="J263" s="2" t="s">
         <v>269</v>
@@ -17646,7 +18436,10 @@
     </row>
     <row r="264" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>634</v>
+        <v>370</v>
+      </c>
+      <c r="B264" s="2">
+        <v>263</v>
       </c>
       <c r="J264" s="2" t="s">
         <v>270</v>
@@ -17666,7 +18459,10 @@
     </row>
     <row r="265" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>635</v>
+        <v>370</v>
+      </c>
+      <c r="B265" s="2">
+        <v>264</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>271</v>
@@ -17686,7 +18482,10 @@
     </row>
     <row r="266" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>636</v>
+        <v>370</v>
+      </c>
+      <c r="B266" s="2">
+        <v>265</v>
       </c>
       <c r="J266" s="2" t="s">
         <v>970</v>
@@ -17703,7 +18502,10 @@
     </row>
     <row r="267" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>637</v>
+        <v>370</v>
+      </c>
+      <c r="B267" s="2">
+        <v>266</v>
       </c>
       <c r="J267" s="2" t="s">
         <v>273</v>
@@ -17723,7 +18525,10 @@
     </row>
     <row r="268" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>638</v>
+        <v>370</v>
+      </c>
+      <c r="B268" s="2">
+        <v>267</v>
       </c>
       <c r="J268" s="2" t="s">
         <v>274</v>
@@ -17743,7 +18548,10 @@
     </row>
     <row r="269" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>639</v>
+        <v>370</v>
+      </c>
+      <c r="B269" s="2">
+        <v>268</v>
       </c>
       <c r="J269" s="2" t="s">
         <v>275</v>
@@ -17763,7 +18571,10 @@
     </row>
     <row r="270" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>640</v>
+        <v>370</v>
+      </c>
+      <c r="B270" s="2">
+        <v>269</v>
       </c>
       <c r="J270" s="2" t="s">
         <v>276</v>
@@ -17783,7 +18594,10 @@
     </row>
     <row r="271" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>641</v>
+        <v>370</v>
+      </c>
+      <c r="B271" s="2">
+        <v>270</v>
       </c>
       <c r="J271" s="2" t="s">
         <v>976</v>
@@ -17800,7 +18614,10 @@
     </row>
     <row r="272" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>642</v>
+        <v>370</v>
+      </c>
+      <c r="B272" s="2">
+        <v>271</v>
       </c>
       <c r="J272" s="2" t="s">
         <v>278</v>
@@ -17820,7 +18637,10 @@
     </row>
     <row r="273" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>643</v>
+        <v>370</v>
+      </c>
+      <c r="B273" s="2">
+        <v>272</v>
       </c>
       <c r="J273" s="2" t="s">
         <v>279</v>
@@ -17840,7 +18660,10 @@
     </row>
     <row r="274" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>644</v>
+        <v>370</v>
+      </c>
+      <c r="B274" s="2">
+        <v>273</v>
       </c>
       <c r="J274" s="2" t="s">
         <v>280</v>
@@ -17860,7 +18683,10 @@
     </row>
     <row r="275" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>645</v>
+        <v>370</v>
+      </c>
+      <c r="B275" s="2">
+        <v>274</v>
       </c>
       <c r="J275" s="2" t="s">
         <v>281</v>
@@ -17883,7 +18709,10 @@
     </row>
     <row r="276" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>646</v>
+        <v>370</v>
+      </c>
+      <c r="B276" s="2">
+        <v>275</v>
       </c>
       <c r="J276" s="2" t="s">
         <v>282</v>
@@ -17906,7 +18735,10 @@
     </row>
     <row r="277" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>647</v>
+        <v>370</v>
+      </c>
+      <c r="B277" s="2">
+        <v>276</v>
       </c>
       <c r="J277" s="2" t="s">
         <v>283</v>
@@ -17926,7 +18758,10 @@
     </row>
     <row r="278" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>648</v>
+        <v>370</v>
+      </c>
+      <c r="B278" s="2">
+        <v>277</v>
       </c>
       <c r="J278" s="2" t="s">
         <v>284</v>
@@ -17949,7 +18784,10 @@
     </row>
     <row r="279" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>649</v>
+        <v>370</v>
+      </c>
+      <c r="B279" s="2">
+        <v>278</v>
       </c>
       <c r="J279" s="2" t="s">
         <v>285</v>
@@ -17972,7 +18810,10 @@
     </row>
     <row r="280" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>650</v>
+        <v>370</v>
+      </c>
+      <c r="B280" s="2">
+        <v>279</v>
       </c>
       <c r="J280" s="2" t="s">
         <v>286</v>
@@ -17995,7 +18836,10 @@
     </row>
     <row r="281" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>651</v>
+        <v>370</v>
+      </c>
+      <c r="B281" s="2">
+        <v>280</v>
       </c>
       <c r="J281" s="2" t="s">
         <v>287</v>
@@ -18018,7 +18862,10 @@
     </row>
     <row r="282" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>652</v>
+        <v>370</v>
+      </c>
+      <c r="B282" s="2">
+        <v>281</v>
       </c>
       <c r="J282" s="2" t="s">
         <v>288</v>
@@ -18038,7 +18885,10 @@
     </row>
     <row r="283" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>653</v>
+        <v>370</v>
+      </c>
+      <c r="B283" s="2">
+        <v>282</v>
       </c>
       <c r="J283" s="2" t="s">
         <v>289</v>
@@ -18058,7 +18908,10 @@
     </row>
     <row r="284" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>654</v>
+        <v>370</v>
+      </c>
+      <c r="B284" s="2">
+        <v>283</v>
       </c>
       <c r="J284" s="2" t="s">
         <v>290</v>
@@ -18078,7 +18931,10 @@
     </row>
     <row r="285" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>655</v>
+        <v>370</v>
+      </c>
+      <c r="B285" s="2">
+        <v>284</v>
       </c>
       <c r="J285" s="2" t="s">
         <v>979</v>
@@ -18095,7 +18951,10 @@
     </row>
     <row r="286" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>656</v>
+        <v>370</v>
+      </c>
+      <c r="B286" s="2">
+        <v>285</v>
       </c>
       <c r="J286" s="2" t="s">
         <v>293</v>
@@ -18115,7 +18974,10 @@
     </row>
     <row r="287" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>657</v>
+        <v>370</v>
+      </c>
+      <c r="B287" s="2">
+        <v>286</v>
       </c>
       <c r="J287" s="2" t="s">
         <v>294</v>
@@ -18135,7 +18997,10 @@
     </row>
     <row r="288" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>658</v>
+        <v>370</v>
+      </c>
+      <c r="B288" s="2">
+        <v>287</v>
       </c>
       <c r="J288" s="2" t="s">
         <v>295</v>
@@ -18158,7 +19023,10 @@
     </row>
     <row r="289" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>659</v>
+        <v>370</v>
+      </c>
+      <c r="B289" s="2">
+        <v>288</v>
       </c>
       <c r="J289" s="2" t="s">
         <v>296</v>
@@ -18181,7 +19049,10 @@
     </row>
     <row r="290" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>660</v>
+        <v>370</v>
+      </c>
+      <c r="B290" s="2">
+        <v>289</v>
       </c>
       <c r="J290" s="2" t="s">
         <v>297</v>
@@ -18201,7 +19072,10 @@
     </row>
     <row r="291" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>661</v>
+        <v>370</v>
+      </c>
+      <c r="B291" s="2">
+        <v>290</v>
       </c>
       <c r="J291" s="2" t="s">
         <v>298</v>
@@ -18221,7 +19095,10 @@
     </row>
     <row r="292" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>662</v>
+        <v>370</v>
+      </c>
+      <c r="B292" s="2">
+        <v>291</v>
       </c>
       <c r="J292" s="2" t="s">
         <v>299</v>
@@ -18241,7 +19118,10 @@
     </row>
     <row r="293" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>663</v>
+        <v>370</v>
+      </c>
+      <c r="B293" s="2">
+        <v>292</v>
       </c>
       <c r="J293" s="2" t="s">
         <v>300</v>
@@ -18264,7 +19144,10 @@
     </row>
     <row r="294" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>664</v>
+        <v>370</v>
+      </c>
+      <c r="B294" s="2">
+        <v>293</v>
       </c>
       <c r="J294" s="2" t="s">
         <v>998</v>
@@ -18281,7 +19164,10 @@
     </row>
     <row r="295" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>665</v>
+        <v>370</v>
+      </c>
+      <c r="B295" s="2">
+        <v>294</v>
       </c>
       <c r="J295" s="2" t="s">
         <v>302</v>
@@ -18301,7 +19187,10 @@
     </row>
     <row r="296" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>666</v>
+        <v>370</v>
+      </c>
+      <c r="B296" s="2">
+        <v>295</v>
       </c>
       <c r="J296" s="2" t="s">
         <v>303</v>
@@ -18321,7 +19210,10 @@
     </row>
     <row r="297" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>667</v>
+        <v>370</v>
+      </c>
+      <c r="B297" s="2">
+        <v>296</v>
       </c>
       <c r="J297" s="2" t="s">
         <v>304</v>
@@ -18344,7 +19236,10 @@
     </row>
     <row r="298" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>668</v>
+        <v>370</v>
+      </c>
+      <c r="B298" s="2">
+        <v>297</v>
       </c>
       <c r="J298" s="2" t="s">
         <v>305</v>
@@ -18367,7 +19262,10 @@
     </row>
     <row r="299" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>669</v>
+        <v>370</v>
+      </c>
+      <c r="B299" s="2">
+        <v>298</v>
       </c>
       <c r="J299" s="2" t="s">
         <v>306</v>
@@ -18390,7 +19288,10 @@
     </row>
     <row r="300" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>670</v>
+        <v>370</v>
+      </c>
+      <c r="B300" s="2">
+        <v>299</v>
       </c>
       <c r="J300" s="2" t="s">
         <v>307</v>
@@ -18413,7 +19314,10 @@
     </row>
     <row r="301" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>671</v>
+        <v>370</v>
+      </c>
+      <c r="B301" s="2">
+        <v>300</v>
       </c>
       <c r="J301" s="2" t="s">
         <v>1003</v>
@@ -18430,7 +19334,10 @@
     </row>
     <row r="302" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>672</v>
+        <v>370</v>
+      </c>
+      <c r="B302" s="2">
+        <v>301</v>
       </c>
       <c r="J302" s="2" t="s">
         <v>309</v>
@@ -18450,7 +19357,10 @@
     </row>
     <row r="303" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>673</v>
+        <v>370</v>
+      </c>
+      <c r="B303" s="2">
+        <v>302</v>
       </c>
       <c r="J303" s="2" t="s">
         <v>310</v>
@@ -18470,7 +19380,10 @@
     </row>
     <row r="304" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>674</v>
+        <v>370</v>
+      </c>
+      <c r="B304" s="2">
+        <v>303</v>
       </c>
       <c r="J304" s="2" t="s">
         <v>311</v>
@@ -18490,7 +19403,10 @@
     </row>
     <row r="305" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>675</v>
+        <v>370</v>
+      </c>
+      <c r="B305" s="2">
+        <v>304</v>
       </c>
       <c r="J305" s="2" t="s">
         <v>1010</v>
@@ -18507,7 +19423,10 @@
     </row>
     <row r="306" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>676</v>
+        <v>370</v>
+      </c>
+      <c r="B306" s="2">
+        <v>305</v>
       </c>
       <c r="J306" s="2" t="s">
         <v>313</v>
@@ -18530,7 +19449,10 @@
     </row>
     <row r="307" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>677</v>
+        <v>370</v>
+      </c>
+      <c r="B307" s="2">
+        <v>306</v>
       </c>
       <c r="J307" s="2" t="s">
         <v>314</v>
@@ -18553,7 +19475,10 @@
     </row>
     <row r="308" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>678</v>
+        <v>370</v>
+      </c>
+      <c r="B308" s="2">
+        <v>307</v>
       </c>
       <c r="J308" s="2" t="s">
         <v>1179</v>
@@ -18573,7 +19498,10 @@
     </row>
     <row r="309" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>679</v>
+        <v>370</v>
+      </c>
+      <c r="B309" s="2">
+        <v>308</v>
       </c>
       <c r="J309" s="2" t="s">
         <v>316</v>
@@ -18593,7 +19521,10 @@
     </row>
     <row r="310" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>680</v>
+        <v>370</v>
+      </c>
+      <c r="B310" s="2">
+        <v>309</v>
       </c>
       <c r="J310" s="2" t="s">
         <v>317</v>
@@ -18613,7 +19544,10 @@
     </row>
     <row r="311" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>681</v>
+        <v>370</v>
+      </c>
+      <c r="B311" s="2">
+        <v>310</v>
       </c>
       <c r="J311" s="2" t="s">
         <v>318</v>
@@ -18636,7 +19570,10 @@
     </row>
     <row r="312" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>682</v>
+        <v>370</v>
+      </c>
+      <c r="B312" s="2">
+        <v>311</v>
       </c>
       <c r="J312" s="2" t="s">
         <v>319</v>
@@ -18656,7 +19593,10 @@
     </row>
     <row r="313" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>683</v>
+        <v>370</v>
+      </c>
+      <c r="B313" s="2">
+        <v>312</v>
       </c>
       <c r="J313" s="2" t="s">
         <v>321</v>
@@ -18679,7 +19619,10 @@
     </row>
     <row r="314" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>684</v>
+        <v>370</v>
+      </c>
+      <c r="B314" s="2">
+        <v>313</v>
       </c>
       <c r="J314" s="2" t="s">
         <v>322</v>
@@ -18702,7 +19645,10 @@
     </row>
     <row r="315" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>685</v>
+        <v>370</v>
+      </c>
+      <c r="B315" s="2">
+        <v>314</v>
       </c>
       <c r="J315" s="2" t="s">
         <v>1180</v>
@@ -18722,7 +19668,10 @@
     </row>
     <row r="316" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>686</v>
+        <v>370</v>
+      </c>
+      <c r="B316" s="2">
+        <v>315</v>
       </c>
       <c r="J316" s="2" t="s">
         <v>324</v>
@@ -18742,7 +19691,10 @@
     </row>
     <row r="317" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>687</v>
+        <v>370</v>
+      </c>
+      <c r="B317" s="2">
+        <v>316</v>
       </c>
       <c r="J317" s="2" t="s">
         <v>325</v>
@@ -18762,7 +19714,10 @@
     </row>
     <row r="318" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>688</v>
+        <v>370</v>
+      </c>
+      <c r="B318" s="2">
+        <v>317</v>
       </c>
       <c r="J318" s="2" t="s">
         <v>326</v>
@@ -18782,7 +19737,10 @@
     </row>
     <row r="319" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>689</v>
+        <v>370</v>
+      </c>
+      <c r="B319" s="2">
+        <v>318</v>
       </c>
       <c r="J319" s="2" t="s">
         <v>1023</v>
@@ -18799,7 +19757,10 @@
     </row>
     <row r="320" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>690</v>
+        <v>370</v>
+      </c>
+      <c r="B320" s="2">
+        <v>319</v>
       </c>
       <c r="J320" s="2" t="s">
         <v>329</v>
@@ -18819,7 +19780,10 @@
     </row>
     <row r="321" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>691</v>
+        <v>370</v>
+      </c>
+      <c r="B321" s="2">
+        <v>320</v>
       </c>
       <c r="J321" s="2" t="s">
         <v>330</v>
@@ -18842,7 +19806,10 @@
     </row>
     <row r="322" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>692</v>
+        <v>370</v>
+      </c>
+      <c r="B322" s="2">
+        <v>321</v>
       </c>
       <c r="J322" s="2" t="s">
         <v>332</v>
@@ -18865,7 +19832,10 @@
     </row>
     <row r="323" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>693</v>
+        <v>370</v>
+      </c>
+      <c r="B323" s="2">
+        <v>322</v>
       </c>
       <c r="J323" s="2" t="s">
         <v>333</v>
@@ -18888,7 +19858,10 @@
     </row>
     <row r="324" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>694</v>
+        <v>370</v>
+      </c>
+      <c r="B324" s="2">
+        <v>323</v>
       </c>
       <c r="J324" s="2" t="s">
         <v>334</v>
@@ -18905,7 +19878,10 @@
     </row>
     <row r="325" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>695</v>
+        <v>370</v>
+      </c>
+      <c r="B325" s="2">
+        <v>324</v>
       </c>
       <c r="J325" s="2" t="s">
         <v>331</v>

--- a/input/FMNH Siphonaptera.xlsx
+++ b/input/FMNH Siphonaptera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/ixodes-tpt/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{341A3E43-5E34-44E1-A89F-5629F445ED00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{059D41AC-C3B8-4CB7-A0CD-7122AE9DF2D9}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{341A3E43-5E34-44E1-A89F-5629F445ED00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{008D6D10-8392-447D-A33D-ABCF456A1700}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4103" uniqueCount="1183">
   <si>
     <t>Family</t>
   </si>
@@ -3583,6 +3583,9 @@
   </si>
   <si>
     <t>TPTdataset</t>
+  </si>
+  <si>
+    <t>canonicalName</t>
   </si>
 </sst>
 </file>
@@ -11926,7 +11929,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D8B0F4-01BA-4566-8EBB-469AAD72931A}">
-  <dimension ref="A1:AK325"/>
+  <dimension ref="A1:AL325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -11938,7 +11941,7 @@
     <col min="2" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1181</v>
       </c>
@@ -12050,8 +12053,11 @@
       <c r="AK1" s="2" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL1" s="2" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>370</v>
       </c>
@@ -12074,7 +12080,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>370</v>
       </c>
@@ -12100,7 +12106,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>370</v>
       </c>
@@ -12126,7 +12132,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>370</v>
       </c>
@@ -12149,7 +12155,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>370</v>
       </c>
@@ -12175,7 +12181,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>370</v>
       </c>
@@ -12201,7 +12207,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>370</v>
       </c>
@@ -12227,7 +12233,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>370</v>
       </c>
@@ -12250,7 +12256,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>370</v>
       </c>
@@ -12276,7 +12282,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>370</v>
       </c>
@@ -12305,7 +12311,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>370</v>
       </c>
@@ -12334,7 +12340,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>370</v>
       </c>
@@ -12363,7 +12369,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>370</v>
       </c>
@@ -12392,7 +12398,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>370</v>
       </c>
@@ -12418,7 +12424,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>370</v>
       </c>
